--- a/core/xlsx/src/main/resources/quotation.xlsx
+++ b/core/xlsx/src/main/resources/quotation.xlsx
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>44562.39468291667</v>
+        <v>44570.64595342593</v>
       </c>
     </row>
     <row r="8">

--- a/core/xlsx/src/main/resources/quotation.xlsx
+++ b/core/xlsx/src/main/resources/quotation.xlsx
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>44570.64595342593</v>
+        <v>44744.907676041665</v>
       </c>
     </row>
     <row r="8">
